--- a/docs/CareConnect-Quantity-1.xlsx
+++ b/docs/CareConnect-Quantity-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
   <si>
     <t>Path</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Value Approximation</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -1065,12 +1068,12 @@
         <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1090,22 +1093,22 @@
         <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>38</v>
@@ -1154,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
@@ -1169,15 +1172,15 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1194,76 +1197,76 @@
         <v>38</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
@@ -1278,15 +1281,15 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1306,20 +1309,20 @@
         <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>38</v>
@@ -1368,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -1383,15 +1386,15 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1411,20 +1414,20 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>38</v>
@@ -1473,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -1482,21 +1485,21 @@
         <v>49</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1516,22 +1519,22 @@
         <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>38</v>
@@ -1580,7 +1583,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1595,10 +1598,10 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
